--- a/result2_original.xlsx
+++ b/result2_original.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -524,12 +524,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17799.6</t>
+          <t>17720.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -539,22 +539,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17715.8</t>
+          <t>17560.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1793.0</t>
+          <t>1780.4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>275.7°</t>
+          <t>180.0°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12146.6</t>
+          <t>11830.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-80.2</t>
+          <t>1400.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -594,22 +594,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12161.0</t>
+          <t>11617.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-226.0</t>
+          <t>1400.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1394.2</t>
+          <t>1369.4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>66.3°</t>
+          <t>180.0°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -634,12 +634,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6038.9</t>
+          <t>5730.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2911.5</t>
+          <t>-3000.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6081.3</t>
+          <t>5460.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-2815.1</t>
+          <t>-3000.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>691.9</t>
+          <t>655.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
